--- a/Cohort1/MetaData/MelanomaCohort1_SampleAnnotations.xlsx
+++ b/Cohort1/MetaData/MelanomaCohort1_SampleAnnotations.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\HaloData\Melanoma_IL2__Final\Cohort1\MetaData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\Maryam\Analysis\Melanoma_IL2_Cohort1_v2\MetaData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
   <si>
     <t>Microscope</t>
   </si>
@@ -96,6 +96,12 @@
   </si>
   <si>
     <t>3_3RS</t>
+  </si>
+  <si>
+    <t>Sample_name</t>
+  </si>
+  <si>
+    <t>Untreated</t>
   </si>
 </sst>
 </file>
@@ -453,160 +459,173 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="19.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="20.5703125" style="1" customWidth="1"/>
+    <col min="3" max="6" width="19.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="I1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="1">
-        <v>1</v>
-      </c>
       <c r="H2" s="1">
         <v>1</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="1">
+        <v>1</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3" s="1">
         <v>2</v>
       </c>
-      <c r="H3" s="1">
-        <v>1</v>
-      </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="1">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="1">
-        <v>1</v>
-      </c>
       <c r="H4" s="1">
         <v>1</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="1">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>8</v>
       </c>
     </row>

--- a/Cohort1/MetaData/MelanomaCohort1_SampleAnnotations.xlsx
+++ b/Cohort1/MetaData/MelanomaCohort1_SampleAnnotations.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\Maryam\Analysis\Melanoma_IL2_Cohort1_v2\MetaData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\HaloData\Melanoma_IL2__Final\Cohort1\MetaData\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{9885801E-9DC4-45CF-AC96-8480BB033AA2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14460" windowHeight="12165"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="4950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="49">
   <si>
     <t>Microscope</t>
   </si>
@@ -38,76 +39,145 @@
     <t>Tumor_subtype</t>
   </si>
   <si>
+    <t>Cytell_2</t>
+  </si>
+  <si>
+    <t>Melanoma</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>CR</t>
+  </si>
+  <si>
+    <t>Patient</t>
+  </si>
+  <si>
+    <t>IL2</t>
+  </si>
+  <si>
+    <t>CELL_DIVE_ID</t>
+  </si>
+  <si>
+    <t>melanoma_PR</t>
+  </si>
+  <si>
+    <t>melanoma_CR</t>
+  </si>
+  <si>
+    <t>melanoma_untreated</t>
+  </si>
+  <si>
+    <t>Replicate</t>
+  </si>
+  <si>
+    <t>MSK_ID_Accession_Num</t>
+  </si>
+  <si>
+    <t>MSK_ID_Block_Part</t>
+  </si>
+  <si>
+    <t>S16_27540</t>
+  </si>
+  <si>
+    <t>4_2RS</t>
+  </si>
+  <si>
+    <t>2_2RS</t>
+  </si>
+  <si>
+    <t>3_3RS</t>
+  </si>
+  <si>
+    <t>Sample_number</t>
+  </si>
+  <si>
+    <t>Number_TVEC_injections</t>
+  </si>
+  <si>
+    <t>Concurrent_treatment</t>
+  </si>
+  <si>
+    <t>ILI Melphalan, Ipilimumab, Pembrolizumab</t>
+  </si>
+  <si>
+    <t>Site</t>
+  </si>
+  <si>
+    <t>Injection</t>
+  </si>
+  <si>
+    <t>Left foot</t>
+  </si>
+  <si>
+    <t>Left groin</t>
+  </si>
+  <si>
+    <t>&lt;4</t>
+  </si>
+  <si>
+    <t>4-10</t>
+  </si>
+  <si>
     <t>Treatment</t>
   </si>
   <si>
-    <t>Response</t>
-  </si>
-  <si>
-    <t>Cytell_2</t>
-  </si>
-  <si>
-    <t>Melanoma</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>PR</t>
-  </si>
-  <si>
-    <t>CR</t>
-  </si>
-  <si>
-    <t>Patient</t>
-  </si>
-  <si>
-    <t>IL2</t>
-  </si>
-  <si>
-    <t>CELL_DIVE_ID</t>
-  </si>
-  <si>
-    <t>melanoma_PR</t>
-  </si>
-  <si>
-    <t>melanoma_CR</t>
-  </si>
-  <si>
-    <t>melanoma_untreated</t>
-  </si>
-  <si>
-    <t>Replicate</t>
-  </si>
-  <si>
-    <t>MSK_ID_Accession_Num</t>
-  </si>
-  <si>
-    <t>MSK_ID_Block_Part</t>
-  </si>
-  <si>
-    <t>S16_27540</t>
-  </si>
-  <si>
-    <t>4_2RS</t>
-  </si>
-  <si>
-    <t>2_2RS</t>
-  </si>
-  <si>
-    <t>3_3RS</t>
-  </si>
-  <si>
-    <t>Sample_name</t>
-  </si>
-  <si>
-    <t>Untreated</t>
+    <t>UT</t>
+  </si>
+  <si>
+    <t>Lesion Response</t>
+  </si>
+  <si>
+    <t>non-CR</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>ICI</t>
+  </si>
+  <si>
+    <t>IL2 interval (days)</t>
+  </si>
+  <si>
+    <t>IL2 interval (days) (detailed)</t>
+  </si>
+  <si>
+    <t>TVEC Interval</t>
+  </si>
+  <si>
+    <t>15-60</t>
+  </si>
+  <si>
+    <t>Num. IL2 injections</t>
+  </si>
+  <si>
+    <t>Num. IL2 injections (detailed)</t>
+  </si>
+  <si>
+    <t>Prior Rx (systemic)</t>
+  </si>
+  <si>
+    <t>Prior Rx (systemic) (detailed)</t>
+  </si>
+  <si>
+    <t>IL2 Treated</t>
+  </si>
+  <si>
+    <t>TVEC Treated</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -137,12 +207,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -458,43 +531,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Y4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" style="1" customWidth="1"/>
-    <col min="3" max="6" width="19.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="25" width="13.5703125" style="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>0</v>
@@ -509,33 +576,72 @@
         <v>3</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="H2" s="1">
         <v>1</v>
@@ -544,92 +650,174 @@
         <v>1</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>9</v>
+        <v>32</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="1">
+        <v>18</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="1">
         <v>1</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="1">
-        <v>2</v>
       </c>
       <c r="I3" s="1">
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="U3" s="1">
         <v>7</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="V3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W3" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1</v>
+      <c r="F4" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H4" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" s="1">
         <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>8</v>
+      <c r="R4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U4" s="1">
+        <v>3</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W4" s="1">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>